--- a/PMGanttCharts.xlsx
+++ b/PMGanttCharts.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kirul\ProjectManagement\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kirul\ProjectManagement\GIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="322">
   <si>
     <t>On site meeting</t>
   </si>
@@ -996,6 +996,9 @@
   </si>
   <si>
     <t>testing after uploadiing extrail</t>
+  </si>
+  <si>
+    <t>github upload testing</t>
   </si>
 </sst>
 </file>
@@ -12807,7 +12810,7 @@
   <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="L2" sqref="L2:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13330,8 +13333,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="5121" r:id="rId4" name="CommandButton1">
+        <control shapeId="5122" r:id="rId4" name="CommandButton2">
           <controlPr autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>11</xdr:row>
+                <xdr:rowOff>30480</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>152400</xdr:colOff>
+                <xdr:row>12</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="5122" r:id="rId4" name="CommandButton2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="5121" r:id="rId6" name="CommandButton1">
+          <controlPr autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
@@ -13350,32 +13378,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="5121" r:id="rId4" name="CommandButton1"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="5122" r:id="rId6" name="CommandButton2">
-          <controlPr autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>11</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>11</xdr:row>
-                <xdr:rowOff>30480</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>12</xdr:col>
-                <xdr:colOff>152400</xdr:colOff>
-                <xdr:row>12</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="5122" r:id="rId6" name="CommandButton2"/>
+        <control shapeId="5121" r:id="rId6" name="CommandButton1"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -26159,17 +26162,57 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="C4"/>
+  <dimension ref="C4:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="11" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>314</v>
+      </c>
+      <c r="E13" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D14" s="134">
+        <v>43466</v>
+      </c>
+      <c r="E14" s="134">
+        <v>43467</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D15" s="134">
+        <v>43480</v>
+      </c>
+      <c r="E15" s="134">
+        <v>43559</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D16" s="134">
+        <v>43487</v>
+      </c>
+      <c r="E16" s="134">
+        <v>43529</v>
       </c>
     </row>
   </sheetData>

--- a/PMGanttCharts.xlsx
+++ b/PMGanttCharts.xlsx
@@ -2233,6 +2233,10 @@
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" fmlaLink="$G$37" lockText="1" noThreeD="1"/>
 </file>
 
+<file path=xl/ctrlProps/ctrlProp141.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
+</file>
+
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
@@ -11695,6 +11699,77 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>243840</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>91440</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>289560</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="8193" name="Button 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s8193"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" wrap="square" lIns="36576" tIns="32004" rIns="36576" bIns="32004" anchor="ctr" upright="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr" rtl="0">
+                <a:defRPr sz="1000"/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri"/>
+                  <a:cs typeface="Calibri"/>
+                </a:rPr>
+                <a:t>Full Screen</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:clientData fPrintsWithSheet="0"/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="L14:O17" totalsRowShown="0">
   <autoFilter ref="L14:O17"/>
@@ -13333,8 +13408,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="5122" r:id="rId4" name="CommandButton2">
+        <control shapeId="5121" r:id="rId4" name="CommandButton1">
           <controlPr autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>6</xdr:col>
+                <xdr:colOff>571500</xdr:colOff>
+                <xdr:row>17</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>68580</xdr:colOff>
+                <xdr:row>18</xdr:row>
+                <xdr:rowOff>121920</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="5121" r:id="rId4" name="CommandButton1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="5122" r:id="rId6" name="CommandButton2">
+          <controlPr autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>11</xdr:col>
@@ -13353,32 +13453,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="5122" r:id="rId4" name="CommandButton2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="5121" r:id="rId6" name="CommandButton1">
-          <controlPr autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>571500</xdr:colOff>
-                <xdr:row>17</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>8</xdr:col>
-                <xdr:colOff>68580</xdr:colOff>
-                <xdr:row>18</xdr:row>
-                <xdr:rowOff>121920</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="5121" r:id="rId6" name="CommandButton1"/>
+        <control shapeId="5122" r:id="rId6" name="CommandButton2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
@@ -26160,12 +26235,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="C4:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26217,6 +26292,37 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="8193" r:id="rId4" name="Button 1">
+              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0" macro="[0]!fullScreen">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>243840</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>91440</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>11</xdr:col>
+                    <xdr:colOff>289560</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
 
